--- a/CM12R2_AVExclusionsList.xlsx
+++ b/CM12R2_AVExclusionsList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOTAYL\Documents\GitHub\ConfigMgr2012R2AVExclusions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirasmus\Documents\GitHub\ConfigMgr2012R2AVExclusions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>windows update agent</t>
   </si>
   <si>
-    <t>role (agent, server, both)</t>
-  </si>
-  <si>
     <t>%windir%\ccmcache</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Configmgr service</t>
+  </si>
+  <si>
+    <t>role (Client, server, both)</t>
   </si>
 </sst>
 </file>
@@ -420,45 +420,45 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -471,12 +471,12 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -488,12 +488,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -505,12 +505,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -522,12 +522,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -536,38 +536,38 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/CM12R2_AVExclusionsList.xlsx
+++ b/CM12R2_AVExclusionsList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>client</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>role (Client, server, both)</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +472,9 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -487,6 +492,9 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -504,6 +512,9 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -521,6 +532,9 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -538,6 +552,9 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -555,6 +572,9 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -568,6 +588,9 @@
       </c>
       <c r="E8" t="s">
         <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CM12R2_AVExclusionsList.xlsx
+++ b/CM12R2_AVExclusionsList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirasmus\Documents\GitHub\ConfigMgr2012R2AVExclusions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOTAYL\Documents\GitHub\ConfigMgr2012R2AVExclusions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>client</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>role (Client, server, both)</t>
+  </si>
+  <si>
+    <t>accepted</t>
   </si>
 </sst>
 </file>
@@ -419,21 +422,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -453,7 +456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -469,9 +472,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -487,8 +492,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -504,8 +512,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -521,8 +532,11 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -538,8 +552,11 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -555,8 +572,11 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -568,6 +588,9 @@
       </c>
       <c r="E8" t="s">
         <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
